--- a/shops.xlsx
+++ b/shops.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
   <si>
     <t>Name</t>
   </si>
@@ -366,6 +366,9 @@
     <t>https://store.packbgr.com/tape/wafer-seals.asp</t>
   </si>
   <si>
+    <t>NEEDS FEATURE</t>
+  </si>
+  <si>
     <t>us_msc</t>
   </si>
   <si>
@@ -419,6 +422,12 @@
   </si>
   <si>
     <t>many categories with complete different pattern -&gt; how to do?</t>
+  </si>
+  <si>
+    <t>CAPTCHA/BLOCK ISSUES</t>
+  </si>
+  <si>
+    <t>MAYBE OK</t>
   </si>
   <si>
     <t>br_neo_brasil</t>
@@ -6325,7 +6334,9 @@
       <c r="T150" s="3"/>
     </row>
     <row r="151" ht="16" customHeight="1">
-      <c r="A151" s="3"/>
+      <c r="A151" t="s" s="7">
+        <v>99</v>
+      </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -6395,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -6421,7 +6432,7 @@
         <v>2</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -6447,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="B156" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -6473,7 +6484,7 @@
         <v>5</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -6543,8 +6554,12 @@
       <c r="T159" s="3"/>
     </row>
     <row r="160" ht="16" customHeight="1">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="A160" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="B160" t="s" s="6">
+        <v>34</v>
+      </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6613,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -6639,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -6665,7 +6680,7 @@
         <v>4</v>
       </c>
       <c r="B165" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -6691,7 +6706,7 @@
         <v>5</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6741,7 +6756,7 @@
         <v>12</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6763,7 +6778,9 @@
       <c r="T168" s="3"/>
     </row>
     <row r="169" ht="16" customHeight="1">
-      <c r="A169" s="3"/>
+      <c r="A169" t="s" s="6">
+        <v>34</v>
+      </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -6833,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6859,7 +6876,7 @@
         <v>2</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6909,7 +6926,7 @@
         <v>5</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6959,7 +6976,7 @@
         <v>12</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6981,8 +6998,12 @@
       <c r="T177" s="3"/>
     </row>
     <row r="178" ht="16" customHeight="1">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+      <c r="A178" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="B178" t="s" s="6">
+        <v>114</v>
+      </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -7051,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -7077,7 +7098,7 @@
         <v>2</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -7103,7 +7124,7 @@
         <v>4</v>
       </c>
       <c r="B183" t="s" s="4">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -7129,7 +7150,7 @@
         <v>5</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -7199,7 +7220,9 @@
       <c r="T186" s="3"/>
     </row>
     <row r="187" ht="16" customHeight="1">
-      <c r="A187" s="3"/>
+      <c r="A187" t="s" s="6">
+        <v>34</v>
+      </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -7269,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -7295,7 +7318,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -7321,7 +7344,7 @@
         <v>4</v>
       </c>
       <c r="B192" t="s" s="4">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -7347,40 +7370,40 @@
         <v>5</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E193" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
@@ -7419,7 +7442,7 @@
         <v>12</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -7511,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -7537,7 +7560,7 @@
         <v>2</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -7563,7 +7586,7 @@
         <v>4</v>
       </c>
       <c r="B201" t="s" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -7589,7 +7612,7 @@
         <v>5</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -7729,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -7755,7 +7778,7 @@
         <v>2</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -7781,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="B210" t="s" s="4">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -7807,7 +7830,7 @@
         <v>5</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7947,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -7973,7 +7996,7 @@
         <v>2</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -7999,7 +8022,7 @@
         <v>4</v>
       </c>
       <c r="B219" t="s" s="4">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -8025,7 +8048,7 @@
         <v>5</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -8165,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -8191,7 +8214,7 @@
         <v>2</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -8241,7 +8264,7 @@
         <v>5</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -8291,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -8383,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -8409,7 +8432,7 @@
         <v>2</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8459,7 +8482,7 @@
         <v>5</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -8509,7 +8532,7 @@
         <v>12</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -8601,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -8627,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -8653,7 +8676,7 @@
         <v>4</v>
       </c>
       <c r="B246" t="s" s="4">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -8679,7 +8702,7 @@
         <v>5</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -8819,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -8845,7 +8868,7 @@
         <v>2</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -8871,7 +8894,7 @@
         <v>4</v>
       </c>
       <c r="B255" t="s" s="4">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -8897,7 +8920,7 @@
         <v>5</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -8947,7 +8970,7 @@
         <v>12</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -9039,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -9065,7 +9088,7 @@
         <v>2</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -9091,7 +9114,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -9117,28 +9140,28 @@
         <v>5</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D265" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E265" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F265" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G265" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H265" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I265" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
@@ -9181,7 +9204,7 @@
         <v>12</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -9273,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -9299,7 +9322,7 @@
         <v>2</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -9325,7 +9348,7 @@
         <v>4</v>
       </c>
       <c r="B273" t="s" s="4">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -9351,7 +9374,7 @@
         <v>5</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -9491,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -9517,7 +9540,7 @@
         <v>2</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -9543,7 +9566,7 @@
         <v>4</v>
       </c>
       <c r="B282" t="s" s="4">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -9569,7 +9592,7 @@
         <v>5</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -9592,13 +9615,13 @@
     </row>
     <row r="284" ht="16" customHeight="1">
       <c r="A284" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -9647,7 +9670,7 @@
         <v>12</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -9739,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -9765,7 +9788,7 @@
         <v>2</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -9815,7 +9838,7 @@
         <v>5</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -9838,13 +9861,13 @@
     </row>
     <row r="294" ht="16" customHeight="1">
       <c r="A294" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -9869,19 +9892,19 @@
         <v>11</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D295" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E295" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F295" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
@@ -9903,7 +9926,7 @@
         <v>12</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -9995,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -10021,7 +10044,7 @@
         <v>2</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -10071,40 +10094,40 @@
         <v>5</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D303" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E303" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F303" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G303" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H303" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I303" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N303" s="3"/>
       <c r="O303" s="3"/>
@@ -10143,7 +10166,7 @@
         <v>12</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -10235,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -10261,7 +10284,7 @@
         <v>2</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -10311,7 +10334,7 @@
         <v>5</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -10361,7 +10384,7 @@
         <v>12</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -10453,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -10479,7 +10502,7 @@
         <v>2</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -10529,7 +10552,7 @@
         <v>5</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -10579,7 +10602,7 @@
         <v>12</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -10671,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -10697,7 +10720,7 @@
         <v>2</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -10723,7 +10746,7 @@
         <v>4</v>
       </c>
       <c r="B329" t="s" s="4">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -10749,7 +10772,7 @@
         <v>5</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -10889,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -10915,7 +10938,7 @@
         <v>2</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -10965,7 +10988,7 @@
         <v>5</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -11015,7 +11038,7 @@
         <v>12</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -11107,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -11133,7 +11156,7 @@
         <v>2</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -11159,7 +11182,7 @@
         <v>4</v>
       </c>
       <c r="B347" t="s" s="4">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -11185,7 +11208,7 @@
         <v>5</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -11325,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -11351,7 +11374,7 @@
         <v>2</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -11377,7 +11400,7 @@
         <v>4</v>
       </c>
       <c r="B356" t="s" s="4">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -11403,7 +11426,7 @@
         <v>5</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -11543,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -11569,7 +11592,7 @@
         <v>2</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -11595,7 +11618,7 @@
         <v>4</v>
       </c>
       <c r="B365" t="s" s="4">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -11621,7 +11644,7 @@
         <v>5</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -11671,7 +11694,7 @@
         <v>12</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -11763,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -11789,7 +11812,7 @@
         <v>2</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -11815,7 +11838,7 @@
         <v>4</v>
       </c>
       <c r="B374" t="s" s="4">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -11841,7 +11864,7 @@
         <v>5</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -11981,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -12007,7 +12030,7 @@
         <v>2</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -12033,7 +12056,7 @@
         <v>4</v>
       </c>
       <c r="B383" t="s" s="4">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -12059,7 +12082,7 @@
         <v>5</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -12199,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -12225,7 +12248,7 @@
         <v>2</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -12251,7 +12274,7 @@
         <v>4</v>
       </c>
       <c r="B392" t="s" s="4">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -12277,7 +12300,7 @@
         <v>5</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -12327,7 +12350,7 @@
         <v>12</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -12419,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -12445,7 +12468,7 @@
         <v>2</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -12471,7 +12494,7 @@
         <v>4</v>
       </c>
       <c r="B401" t="s" s="4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -12497,7 +12520,7 @@
         <v>5</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -12637,7 +12660,7 @@
         <v>0</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -12663,7 +12686,7 @@
         <v>2</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -12689,7 +12712,7 @@
         <v>4</v>
       </c>
       <c r="B410" t="s" s="4">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -12715,7 +12738,7 @@
         <v>5</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -12855,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -12881,7 +12904,7 @@
         <v>2</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -12931,7 +12954,7 @@
         <v>5</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -12954,10 +12977,10 @@
     </row>
     <row r="421" ht="16" customHeight="1">
       <c r="A421" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -13007,7 +13030,7 @@
         <v>12</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -13099,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -13125,7 +13148,7 @@
         <v>2</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -13151,7 +13174,7 @@
         <v>4</v>
       </c>
       <c r="B429" t="s" s="4">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -13177,7 +13200,7 @@
         <v>5</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -13317,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -13343,7 +13366,7 @@
         <v>2</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -13369,7 +13392,7 @@
         <v>4</v>
       </c>
       <c r="B438" t="s" s="4">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -13395,7 +13418,7 @@
         <v>5</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -13535,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -13561,7 +13584,7 @@
         <v>2</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -13587,7 +13610,7 @@
         <v>4</v>
       </c>
       <c r="B447" t="s" s="4">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -13613,7 +13636,7 @@
         <v>5</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -13663,7 +13686,7 @@
         <v>12</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -13755,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -13781,7 +13804,7 @@
         <v>2</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -13807,7 +13830,7 @@
         <v>4</v>
       </c>
       <c r="B456" t="s" s="4">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -13833,7 +13856,7 @@
         <v>5</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -13883,7 +13906,7 @@
         <v>12</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -13975,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -14001,7 +14024,7 @@
         <v>2</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
@@ -14027,7 +14050,7 @@
         <v>4</v>
       </c>
       <c r="B465" t="s" s="4">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -14053,7 +14076,7 @@
         <v>5</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -14193,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
@@ -14219,7 +14242,7 @@
         <v>2</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -14245,7 +14268,7 @@
         <v>4</v>
       </c>
       <c r="B474" t="s" s="4">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
@@ -14271,7 +14294,7 @@
         <v>5</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -14411,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
@@ -14437,7 +14460,7 @@
         <v>2</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
@@ -14463,7 +14486,7 @@
         <v>4</v>
       </c>
       <c r="B483" t="s" s="4">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
@@ -14489,7 +14512,7 @@
         <v>5</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
@@ -14629,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
@@ -14655,7 +14678,7 @@
         <v>2</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -14705,22 +14728,22 @@
         <v>5</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D493" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E493" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F493" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G493" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H493" s="3"/>
       <c r="I493" s="3"/>
@@ -14765,7 +14788,7 @@
         <v>12</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
@@ -14857,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
@@ -14907,7 +14930,7 @@
         <v>4</v>
       </c>
       <c r="B501" t="s" s="4">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
@@ -14933,61 +14956,61 @@
         <v>5</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D502" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E502" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F502" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G502" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H502" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I502" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="J502" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K502" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L502" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M502" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N502" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O502" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P502" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q502" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="R502" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="S502" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="T502" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="503" ht="16" customHeight="1">
@@ -15019,7 +15042,7 @@
         <v>12</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
@@ -15111,7 +15134,7 @@
         <v>0</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
@@ -15137,7 +15160,7 @@
         <v>2</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
@@ -15163,7 +15186,7 @@
         <v>4</v>
       </c>
       <c r="B510" t="s" s="4">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -15189,7 +15212,7 @@
         <v>5</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -15239,7 +15262,7 @@
         <v>12</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -15331,7 +15354,7 @@
         <v>0</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -15357,7 +15380,7 @@
         <v>2</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -15383,7 +15406,7 @@
         <v>4</v>
       </c>
       <c r="B519" t="s" s="4">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -15409,7 +15432,7 @@
         <v>5</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -15459,7 +15482,7 @@
         <v>12</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -15551,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -15577,7 +15600,7 @@
         <v>2</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -15627,43 +15650,43 @@
         <v>5</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D529" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E529" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F529" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G529" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H529" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I529" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J529" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K529" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L529" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M529" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N529" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O529" s="3"/>
       <c r="P529" s="3"/>
@@ -15701,7 +15724,7 @@
         <v>12</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -15793,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -15819,7 +15842,7 @@
         <v>2</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -15845,7 +15868,7 @@
         <v>4</v>
       </c>
       <c r="B537" t="s" s="4">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -15871,7 +15894,7 @@
         <v>5</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -15921,7 +15944,7 @@
         <v>12</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -16013,7 +16036,7 @@
         <v>0</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -16039,7 +16062,7 @@
         <v>2</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -16089,28 +16112,28 @@
         <v>5</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D547" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E547" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F547" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G547" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H547" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I547" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J547" s="3"/>
       <c r="K547" s="3"/>
@@ -16129,7 +16152,7 @@
         <v>11</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
